--- a/modelo.xlsx
+++ b/modelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffser\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5810FAD-9AD8-47E1-94DF-9BBC4BA9523B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238351E5-CA94-4CC9-8857-1B180FA537B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{85710766-2088-4DD9-9A5F-83612AB203F2}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{85710766-2088-4DD9-9A5F-83612AB203F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DETALHE DE SERVIÇO</t>
   </si>
@@ -94,12 +94,18 @@
   <si>
     <t>→ VERMELHA →</t>
   </si>
+  <si>
+    <t>1) Tabela PRETA: SEG a SEX e licenças administrativas</t>
+  </si>
+  <si>
+    <t>2) Tabela VERMELHA: SÁB, DOM, feriados/feriadões e LICPAG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +134,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,19 +161,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,15 +492,17 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -497,151 +512,161 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="27" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="32" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -657,5 +682,6 @@
     <mergeCell ref="F15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>